--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1412.730528420095</v>
+        <v>10.39063988502222</v>
       </c>
       <c r="R2">
-        <v>12714.57475578085</v>
+        <v>93.51575896520001</v>
       </c>
       <c r="S2">
-        <v>0.2467121240407004</v>
+        <v>0.008218757585071354</v>
       </c>
       <c r="T2">
-        <v>0.2467121240407004</v>
+        <v>0.008218757585071353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>1226.073353094179</v>
+        <v>13.69163463203556</v>
       </c>
       <c r="R3">
-        <v>11034.66017784761</v>
+        <v>123.22471168832</v>
       </c>
       <c r="S3">
-        <v>0.2141152577129132</v>
+        <v>0.01082976864074307</v>
       </c>
       <c r="T3">
-        <v>0.2141152577129132</v>
+        <v>0.01082976864074307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1714.266566527225</v>
+        <v>19.14331751160889</v>
       </c>
       <c r="R4">
-        <v>15428.39909874502</v>
+        <v>172.28985760448</v>
       </c>
       <c r="S4">
-        <v>0.2993708547325497</v>
+        <v>0.01514192463052802</v>
       </c>
       <c r="T4">
-        <v>0.2993708547325497</v>
+        <v>0.01514192463052802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>153.125656346884</v>
+        <v>100.8537565122533</v>
       </c>
       <c r="R5">
-        <v>1378.130907121956</v>
+        <v>907.68380861028</v>
       </c>
       <c r="S5">
-        <v>0.02674109121483664</v>
+        <v>0.07977300584854681</v>
       </c>
       <c r="T5">
-        <v>0.02674109121483664</v>
+        <v>0.0797730058485468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>132.8939122820053</v>
@@ -818,10 +818,10 @@
         <v>1196.045210538048</v>
       </c>
       <c r="S6">
-        <v>0.02320792161817186</v>
+        <v>0.1051160334362028</v>
       </c>
       <c r="T6">
-        <v>0.02320792161817185</v>
+        <v>0.1051160334362028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>185.8091036275413</v>
@@ -880,10 +880,10 @@
         <v>1672.281932647872</v>
       </c>
       <c r="S7">
-        <v>0.03244876336983764</v>
+        <v>0.1469707348837543</v>
       </c>
       <c r="T7">
-        <v>0.03244876336983764</v>
+        <v>0.1469707348837543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J8">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>292.5150408097966</v>
+        <v>192.6603379591222</v>
       </c>
       <c r="R8">
-        <v>2632.63536728817</v>
+        <v>1733.9430416321</v>
       </c>
       <c r="S8">
-        <v>0.05108334928724443</v>
+        <v>0.1523899039390643</v>
       </c>
       <c r="T8">
-        <v>0.05108334928724444</v>
+        <v>0.1523899039390643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J9">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>253.8664591025956</v>
@@ -1004,10 +1004,10 @@
         <v>2284.79813192336</v>
       </c>
       <c r="S9">
-        <v>0.04433395618479089</v>
+        <v>0.2008025405011138</v>
       </c>
       <c r="T9">
-        <v>0.04433395618479088</v>
+        <v>0.2008025405011138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J10">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>354.9500379434489</v>
@@ -1066,10 +1066,10 @@
         <v>3194.55034149104</v>
       </c>
       <c r="S10">
-        <v>0.06198668183895521</v>
+        <v>0.2807573305349756</v>
       </c>
       <c r="T10">
-        <v>0.06198668183895522</v>
+        <v>0.2807573305349756</v>
       </c>
     </row>
   </sheetData>
